--- a/data/trans_orig/Q33-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>7.31900211460498</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.094683937583305</v>
+        <v>7.094683937583304</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>7.41433454951944</v>
@@ -681,7 +681,7 @@
         <v>7.328841882619684</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>7.054077561362105</v>
+        <v>7.054077561362104</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>7.395933550488462</v>
@@ -693,7 +693,7 @@
         <v>7.323401977174759</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.07552632328483</v>
+        <v>7.075526323284828</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.278420372200593</v>
+        <v>7.29766361396985</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.206967934704884</v>
+        <v>7.215629799191919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.222991507212189</v>
+        <v>7.210858408461005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.015934890880095</v>
+        <v>7.014177789202242</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.300444134500496</v>
+        <v>7.295271269567042</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.097362668545377</v>
+        <v>7.08833894389355</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.204567882643309</v>
+        <v>7.197672814839472</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.968736488162677</v>
+        <v>6.975235685462845</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.32231627252037</v>
+        <v>7.326630802812863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.190259983260589</v>
+        <v>7.194883442803779</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.245806675475842</v>
+        <v>7.246869786521085</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>7.018923224723673</v>
+        <v>7.013448643179761</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.463548765085142</v>
+        <v>7.486666386125083</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.442505835010674</v>
+        <v>7.45460449385998</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.42160260032772</v>
+        <v>7.416590112424742</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.172074980698659</v>
+        <v>7.173763560277193</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.529453879348933</v>
+        <v>7.525056188653561</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.351758691357224</v>
+        <v>7.347355562158516</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.444574987710777</v>
+        <v>7.438539528757014</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.130240021502312</v>
+        <v>7.138662752445931</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.46098176948289</v>
+        <v>7.461694060013564</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.364882095893518</v>
+        <v>7.36416219747939</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.400729310262189</v>
+        <v>7.399220477374308</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.134624371964706</v>
+        <v>7.13026245997908</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>7.337689596963676</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>7.01162185343012</v>
+        <v>7.011621853430119</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>7.496409765451808</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.457079980448521</v>
+        <v>7.45200290614493</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.16096296161274</v>
+        <v>7.147310369213532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.208524106878291</v>
+        <v>7.212999844538472</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.078450075525677</v>
+        <v>7.076999325544925</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.341785521823206</v>
+        <v>7.34538584357416</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.00927537583619</v>
+        <v>7.00999165731219</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.220961898592035</v>
+        <v>7.234269637805029</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.913280112112473</v>
+        <v>6.909485390774178</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.429887497910085</v>
+        <v>7.42787264547237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.1171141921358</v>
+        <v>7.117491018570573</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.250762945179162</v>
+        <v>7.256009649942228</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.028442989806049</v>
+        <v>7.027537724788842</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.646571830130404</v>
+        <v>7.643830252686565</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.450003362384105</v>
+        <v>7.433521110180712</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.440444203117135</v>
+        <v>7.441042740991773</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.261901123832908</v>
+        <v>7.270555342429931</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.548624570682956</v>
+        <v>7.547730154550298</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.265184583560807</v>
+        <v>7.274963178772717</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.442331878630299</v>
+        <v>7.442139202661052</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.101341211320717</v>
+        <v>7.097818683829741</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.566145547598111</v>
+        <v>7.571006675132032</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.30433071638874</v>
+        <v>7.32264697922675</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.413784896211597</v>
+        <v>7.415663510334634</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.159418863371878</v>
+        <v>7.160830672980038</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>7.200235952048801</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>6.987253238456736</v>
+        <v>6.987253238456733</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>7.446930427006963</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.416039429105069</v>
+        <v>7.42136916304766</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.172726855403166</v>
+        <v>7.182969021312098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.26606946417362</v>
+        <v>7.268339257433432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.892335950513544</v>
+        <v>6.891562309852188</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.058397354250824</v>
+        <v>7.047931080456812</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.965251388085018</v>
+        <v>6.952527340676665</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.955412134024902</v>
+        <v>6.946677367364514</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.8517923144874</v>
+        <v>6.845601979875538</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.362101729596262</v>
+        <v>7.373736603778079</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7.138538445742566</v>
+        <v>7.141481058327942</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.23518512115615</v>
+        <v>7.232169239837116</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.909025812813087</v>
+        <v>6.905472568938068</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.59088614873143</v>
+        <v>7.592360491394676</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.373269979630398</v>
+        <v>7.384796592007864</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.475806679511621</v>
+        <v>7.467569609105469</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.098139926217718</v>
+        <v>7.10487573337645</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.459902795707089</v>
+        <v>7.458841850729318</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.256378688581404</v>
+        <v>7.251286764517496</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.39860672300014</v>
+        <v>7.388445322992347</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.123840559500499</v>
+        <v>7.119071136812842</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.534417941223054</v>
+        <v>7.526184773589438</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.312189351121824</v>
+        <v>7.309492817740632</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.43113229901205</v>
+        <v>7.428077177082201</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.081348291298281</v>
+        <v>7.076431980262075</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.361880497285235</v>
+        <v>7.368742851925115</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.262180811892226</v>
+        <v>7.258227362110216</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.352330430128263</v>
+        <v>7.355346490903652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.086043838400783</v>
+        <v>7.092186765138051</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.348024088027822</v>
+        <v>7.340950703852785</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.112058389675713</v>
+        <v>7.111021145220978</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.15239063142698</v>
+        <v>7.153517010326166</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.876625318629325</v>
+        <v>6.884194109199813</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.382282078107947</v>
+        <v>7.383594421528412</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.22707732333179</v>
+        <v>7.23392779840098</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.291923152123893</v>
+        <v>7.291459855735039</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>7.019430692196543</v>
+        <v>7.01782602421277</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.502547385207189</v>
+        <v>7.506336895131675</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.416912778771642</v>
+        <v>7.409870484314185</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.50111335822122</v>
+        <v>7.501266599060485</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.232861925342676</v>
+        <v>7.238211490468228</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.513761692565454</v>
+        <v>7.518088688572664</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.324990294560962</v>
+        <v>7.320148198018414</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.327673603272841</v>
+        <v>7.325085558319295</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>7.026010094255915</v>
+        <v>7.038218539461754</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.49498746638826</v>
+        <v>7.49076292388676</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.352124105240343</v>
+        <v>7.358162779006157</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.404928994536092</v>
+        <v>7.403718727646946</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.120559917623731</v>
+        <v>7.122777874905691</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>7.306456954440539</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>7.013851572504301</v>
+        <v>7.0138515725043</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.536369094576772</v>
+        <v>7.520697961853261</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.351168436715599</v>
+        <v>7.35211200485455</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.419469660917136</v>
+        <v>7.431983083737303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.015210766276421</v>
+        <v>7.029994023900593</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.280714121118575</v>
+        <v>7.280707122880716</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.965954740806009</v>
+        <v>6.960126277748921</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.030441114984995</v>
+        <v>7.02481943044747</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.87031806975132</v>
+        <v>6.861865437297424</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.403003141135419</v>
+        <v>7.399941591186196</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7.15078839007794</v>
+        <v>7.147136133462411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7.2379277349939</v>
+        <v>7.23743301617114</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.952271488206438</v>
+        <v>6.950353497053751</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.77258584265395</v>
+        <v>7.768242499410561</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.586880492894385</v>
+        <v>7.587105732621931</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.625704963615302</v>
+        <v>7.644204069816523</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.209239907988544</v>
+        <v>7.220845058364344</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.490311410079902</v>
+        <v>7.485760802616109</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.166065596752125</v>
+        <v>7.159779779767462</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.223975313914714</v>
+        <v>7.216441344801261</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.022045333421501</v>
+        <v>7.020708741410107</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.565630751704943</v>
+        <v>7.557134111103891</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7.302126173901796</v>
+        <v>7.302305476986024</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7.379212373932743</v>
+        <v>7.378748674764124</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>7.072258497565088</v>
+        <v>7.071396358636373</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>7.299103282525932</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>7.252469561580926</v>
+        <v>7.252469561580925</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>7.51937484736223</v>
@@ -1373,7 +1373,7 @@
         <v>7.461483068641257</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>7.369238956285962</v>
+        <v>7.369238956285961</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.044366996629948</v>
+        <v>8.035637393637558</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.915614711872856</v>
+        <v>7.909855051343615</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.955454646480231</v>
+        <v>7.955886481271958</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.551926023170864</v>
+        <v>7.554823531025975</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>7.294729245492285</v>
+        <v>7.293789325410273</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.17619828903773</v>
+        <v>7.180292651020287</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.220276196782721</v>
+        <v>7.221728040412687</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>7.167298197663813</v>
+        <v>7.171677037502262</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>7.448247943532451</v>
+        <v>7.451239143399248</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7.335302768430195</v>
+        <v>7.340793158915237</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7.385283431751671</v>
+        <v>7.38193749110908</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>7.287690353193673</v>
+        <v>7.294337725693824</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.250949809211864</v>
+        <v>8.250136327187576</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.18723720249805</v>
+        <v>8.194235643333837</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.20098602644728</v>
+        <v>8.204420870778744</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.955022339481948</v>
+        <v>7.962267957011841</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.45014144330073</v>
+        <v>7.438329211386916</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>7.344423803657229</v>
+        <v>7.343145260379134</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>7.384939382392961</v>
+        <v>7.389043726173579</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>7.334784907532383</v>
+        <v>7.338172613099132</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>7.58151394457813</v>
+        <v>7.584948383364841</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7.492748299856681</v>
+        <v>7.487522343884719</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7.529636597010904</v>
+        <v>7.525660665972037</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>7.442472482617469</v>
+        <v>7.44874264791701</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.501393814714797</v>
+        <v>7.502199818073303</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.342928586884037</v>
+        <v>7.346952435492819</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.421746509354038</v>
+        <v>7.42663261938079</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.128472833074112</v>
+        <v>7.121120264127399</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.352293536121921</v>
+        <v>7.348625517487731</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.141337360261351</v>
+        <v>7.138721092009423</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.207613090376068</v>
+        <v>7.210712037908461</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.0047393835807</v>
+        <v>7.005337100869585</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.436661793928548</v>
+        <v>7.436560138139736</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7.25320913999974</v>
+        <v>7.253803202302805</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7.328506827568838</v>
+        <v>7.322149013835127</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>7.075231793218745</v>
+        <v>7.074860948102088</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.582055510473586</v>
+        <v>7.578970393497453</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.43461882235751</v>
+        <v>7.438345979307186</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.505731620691345</v>
+        <v>7.512675074917953</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.204867442089525</v>
+        <v>7.204468102945511</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.436501502792504</v>
+        <v>7.43389213154126</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.227661117862611</v>
+        <v>7.230589725205622</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.293440398080206</v>
+        <v>7.293718013137806</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.079681644770091</v>
+        <v>7.076458811735488</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.499367330473482</v>
+        <v>7.492655993317697</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7.31608101405728</v>
+        <v>7.3190672403701</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7.386580652617717</v>
+        <v>7.384225439020632</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>7.129541329585875</v>
+        <v>7.12994732406609</v>
       </c>
     </row>
     <row r="25">
